--- a/config/_TableConfig/#Combat.Campaign-战役-7.xlsx
+++ b/config/_TableConfig/#Combat.Campaign-战役-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31050" windowHeight="11380"/>
+    <workbookView windowWidth="26490" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>map,string,(array,GameCombat.SquadStance)</t>
-  </si>
-  <si>
-    <t>GameCombat.SquadStance</t>
+    <t>map,string,(array,Combat.SquadStance)</t>
+  </si>
+  <si>
+    <t>Combat.SquadStance</t>
   </si>
   <si>
     <t>row</t>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="9">
         <v>60005</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="8">
         <v>60005</v>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9" s="9">
         <v>60003</v>
